--- a/medicine/Enfance/Michel-Aimé_Baudouy/Michel-Aimé_Baudouy.xlsx
+++ b/medicine/Enfance/Michel-Aimé_Baudouy/Michel-Aimé_Baudouy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michel-Aim%C3%A9_Baudouy</t>
+          <t>Michel-Aimé_Baudouy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel-Aimé Baudouy, né le 1er avril 1909 au Vernet en Ariège et mort le 20 septembre 1997 à Pamiers[1], est un écrivain français, auteur de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel-Aimé Baudouy, né le 1er avril 1909 au Vernet en Ariège et mort le 20 septembre 1997 à Pamiers, est un écrivain français, auteur de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michel-Aim%C3%A9_Baudouy</t>
+          <t>Michel-Aimé_Baudouy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans l'Ariège, il fait des études de lettres à l'université de Toulouse, à la Sorbonne et à l'école normale supérieure de l'enseignement technique. Il enseigne ensuite à Tourcoing, Nantes et Paris[2]. Il est prisonnier lors de la Seconde Guerre mondiale[2].
-En 1957, le Prix Enfance du monde couronne son roman Le Seigneur des Hautes-Buttes[3]. Il reçoit également le Prix Jeunesse en 1970, le Prix Durchon-Louvet en 1977,  et le Prix Sobrier-Arnould en 1978. 
-Il a également utilisé le pseudonyme de Jacques Morvan. Il a aussi écrit des romans policiers sous le pseudonyme de François Vernières[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans l'Ariège, il fait des études de lettres à l'université de Toulouse, à la Sorbonne et à l'école normale supérieure de l'enseignement technique. Il enseigne ensuite à Tourcoing, Nantes et Paris. Il est prisonnier lors de la Seconde Guerre mondiale.
+En 1957, le Prix Enfance du monde couronne son roman Le Seigneur des Hautes-Buttes. Il reçoit également le Prix Jeunesse en 1970, le Prix Durchon-Louvet en 1977,  et le Prix Sobrier-Arnould en 1978. 
+Il a également utilisé le pseudonyme de Jacques Morvan. Il a aussi écrit des romans policiers sous le pseudonyme de François Vernières.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michel-Aim%C3%A9_Baudouy</t>
+          <t>Michel-Aimé_Baudouy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres pour la jeunesse
-L'Enfant aux aigles, Amitié-G.T. Rageot, 1949.
+          <t>Livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Enfant aux aigles, Amitié-G.T. Rageot, 1949.
 Bruno, roi de la montagne, Rageot, 1953.
 Les Princes du vent, éditions de l'Amitié, 1956.
 Le Seigneur des Hautes-Buttes, éditions de l'Amitié, illustrations de Claire Marchal (édition originale 1957), de G. de Sainte-Croix (réédition 1969),
@@ -580,19 +599,7 @@
 Le Maître du salon noir, illustrations de Nathaële Vogel, Rageot, collection Cascade, 1991.
 Hélène passera ce soir, MFG, 1991.
 Contes nouveaux des Pyrénées, illustrations de Christian Maucler, Milan, collection Mille ans de contes, 1991.
-Le Rouquin de Lartigue, illustrations de Vincent Rio, Flammarion, collection Castor Poche, 1982.
-Sous le nom de François Vernières
-L'Affaire Mister John, Paris, Hatier, 1971.
-Enquête sur la grand-côte, Hatier-G.P.Rageot, 1973.
-Littérature pour adultes
-Une morte de rien du tout, Calmann-Lévy, 1946.
-Nous n'étions que des hommes, Stock, 1946.
-Tandis que les pères, Calmann-Lévy, 1948.
-Le ciel est bleu, Calmann-Lévy, 1954.
-Pitié pour les héros, théâtre, Comédie de Paris, 1957.
-Autres ouvrages
-avec Robert Moussay, Civilisation contemporaine : aspects et problèmes (choix de textes), Hatier, 1966.
-avec C. Mercier Nast, La Femme dans le monde contemporain : lectures et thèmes de réflexion, F. Nathan, 1971.</t>
+Le Rouquin de Lartigue, illustrations de Vincent Rio, Flammarion, collection Castor Poche, 1982.</t>
         </is>
       </c>
     </row>
@@ -602,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michel-Aim%C3%A9_Baudouy</t>
+          <t>Michel-Aimé_Baudouy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -617,13 +624,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le nom de François Vernières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Affaire Mister John, Paris, Hatier, 1971.
+Enquête sur la grand-côte, Hatier-G.P.Rageot, 1973.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel-Aimé_Baudouy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel-Aim%C3%A9_Baudouy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature pour adultes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une morte de rien du tout, Calmann-Lévy, 1946.
+Nous n'étions que des hommes, Stock, 1946.
+Tandis que les pères, Calmann-Lévy, 1948.
+Le ciel est bleu, Calmann-Lévy, 1954.
+Pitié pour les héros, théâtre, Comédie de Paris, 1957.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel-Aimé_Baudouy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel-Aim%C3%A9_Baudouy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>avec Robert Moussay, Civilisation contemporaine : aspects et problèmes (choix de textes), Hatier, 1966.
+avec C. Mercier Nast, La Femme dans le monde contemporain : lectures et thèmes de réflexion, F. Nathan, 1971.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michel-Aimé_Baudouy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel-Aim%C3%A9_Baudouy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1957 : Prix Enfance du monde, pour Le Seigneur des Hautes-Buttes[3]
-1960 : (international) « Honor List »[4], de l' IBBY, pour Le Seigneur des Hautes-Buttes
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1957 : Prix Enfance du monde, pour Le Seigneur des Hautes-Buttes
+1960 : (international) « Honor List », de l' IBBY, pour Le Seigneur des Hautes-Buttes
 1970 : Prix Jeunesse pour Alerte  sur le Roc blanc
 1977 : Prix Durchon-Louvet pour Jeanne aux chevaux
 1978 : Prix Sobrier-Arnould pour Allez les petits
